--- a/data/covid19-germany.xlsx
+++ b/data/covid19-germany.xlsx
@@ -5252,6 +5252,310 @@
         <v>43910</v>
       </c>
     </row>
+    <row r="274">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Baden-Württemberg</t>
+        </is>
+      </c>
+      <c r="C274">
+        <v>3668</v>
+      </c>
+      <c r="D274">
+        <v>16</v>
+      </c>
+      <c r="E274" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Bavaria</t>
+        </is>
+      </c>
+      <c r="C275">
+        <v>2960</v>
+      </c>
+      <c r="D275">
+        <v>19</v>
+      </c>
+      <c r="E275" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="C276">
+        <v>866</v>
+      </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
+      <c r="E276" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Brandenburg</t>
+        </is>
+      </c>
+      <c r="C277">
+        <v>254</v>
+      </c>
+      <c r="D277">
+        <v>0</v>
+      </c>
+      <c r="E277" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Bremen</t>
+        </is>
+      </c>
+      <c r="C278">
+        <v>142</v>
+      </c>
+      <c r="D278">
+        <v>0</v>
+      </c>
+      <c r="E278" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="C279">
+        <v>587</v>
+      </c>
+      <c r="D279">
+        <v>0</v>
+      </c>
+      <c r="E279" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Hesse</t>
+        </is>
+      </c>
+      <c r="C280">
+        <v>1080</v>
+      </c>
+      <c r="D280">
+        <v>2</v>
+      </c>
+      <c r="E280" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Lower Saxony</t>
+        </is>
+      </c>
+      <c r="C281">
+        <v>1023</v>
+      </c>
+      <c r="D281">
+        <v>0</v>
+      </c>
+      <c r="E281" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Mecklenburg-Western Pomerania</t>
+        </is>
+      </c>
+      <c r="C282">
+        <v>165</v>
+      </c>
+      <c r="D282">
+        <v>0</v>
+      </c>
+      <c r="E282" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>North Rhine-Westphalia</t>
+        </is>
+      </c>
+      <c r="C283">
+        <v>3542</v>
+      </c>
+      <c r="D283">
+        <v>6</v>
+      </c>
+      <c r="E283" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Rhineland-Palatinate</t>
+        </is>
+      </c>
+      <c r="C284">
+        <v>938</v>
+      </c>
+      <c r="D284">
+        <v>1</v>
+      </c>
+      <c r="E284" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Saarland</t>
+        </is>
+      </c>
+      <c r="C285">
+        <v>187</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+      <c r="E285" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Saxony</t>
+        </is>
+      </c>
+      <c r="C286">
+        <v>567</v>
+      </c>
+      <c r="D286">
+        <v>0</v>
+      </c>
+      <c r="E286" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Saxony-Anhalt</t>
+        </is>
+      </c>
+      <c r="C287">
+        <v>188</v>
+      </c>
+      <c r="D287">
+        <v>1</v>
+      </c>
+      <c r="E287" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Schleswig-Holstein</t>
+        </is>
+      </c>
+      <c r="C288">
+        <v>308</v>
+      </c>
+      <c r="D288">
+        <v>1</v>
+      </c>
+      <c r="E288" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Thuringia</t>
+        </is>
+      </c>
+      <c r="C289">
+        <v>187</v>
+      </c>
+      <c r="D289">
+        <v>0</v>
+      </c>
+      <c r="E289" s="1">
+        <v>43911</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>